--- a/7/1/1/3/2/Series desestacionalizadas 1996 a 2021 - Anual.xlsx
+++ b/7/1/1/3/2/Series desestacionalizadas 1996 a 2021 - Anual.xlsx
@@ -1629,7 +1629,7 @@
         <v>47</v>
       </c>
       <c r="B14">
-        <v>3993</v>
+        <v>3992</v>
       </c>
       <c r="C14">
         <v>576</v>
@@ -1644,40 +1644,40 @@
         <v>1430</v>
       </c>
       <c r="G14">
-        <v>13860</v>
+        <v>13857</v>
       </c>
       <c r="H14">
-        <v>5500</v>
+        <v>5498</v>
       </c>
       <c r="K14">
         <v>250</v>
       </c>
       <c r="L14">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="M14">
         <v>1150</v>
       </c>
       <c r="N14">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="Q14">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="R14">
         <v>2327</v>
       </c>
       <c r="S14">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="T14">
-        <v>7918</v>
+        <v>7916</v>
       </c>
       <c r="U14">
-        <v>10775</v>
+        <v>10772</v>
       </c>
       <c r="X14">
-        <v>5733</v>
+        <v>5732</v>
       </c>
       <c r="Y14">
         <v>3321</v>
@@ -1695,13 +1695,13 @@
         <v>5202</v>
       </c>
       <c r="AG14">
-        <v>8279</v>
+        <v>8277</v>
       </c>
       <c r="AH14">
         <v>476</v>
       </c>
       <c r="AI14">
-        <v>113747</v>
+        <v>113737</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -1709,7 +1709,7 @@
         <v>48</v>
       </c>
       <c r="B15">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="C15">
         <v>512</v>
@@ -1724,16 +1724,16 @@
         <v>1312</v>
       </c>
       <c r="G15">
-        <v>13020</v>
+        <v>13016</v>
       </c>
       <c r="H15">
-        <v>5300</v>
+        <v>5298</v>
       </c>
       <c r="K15">
         <v>254</v>
       </c>
       <c r="L15">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M15">
         <v>1048</v>
@@ -1745,19 +1745,19 @@
         <v>693</v>
       </c>
       <c r="R15">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="S15">
         <v>2534</v>
       </c>
       <c r="T15">
-        <v>7479</v>
+        <v>7478</v>
       </c>
       <c r="U15">
-        <v>10067</v>
+        <v>10065</v>
       </c>
       <c r="X15">
-        <v>5082</v>
+        <v>5081</v>
       </c>
       <c r="Y15">
         <v>3356</v>
@@ -1781,7 +1781,7 @@
         <v>397</v>
       </c>
       <c r="AI15">
-        <v>111995</v>
+        <v>111987</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -1804,16 +1804,16 @@
         <v>1502</v>
       </c>
       <c r="G16">
-        <v>13455</v>
+        <v>13452</v>
       </c>
       <c r="H16">
-        <v>5216</v>
+        <v>5214</v>
       </c>
       <c r="K16">
         <v>298</v>
       </c>
       <c r="L16">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="M16">
         <v>1053</v>
@@ -1831,13 +1831,13 @@
         <v>2759</v>
       </c>
       <c r="T16">
-        <v>7570</v>
+        <v>7569</v>
       </c>
       <c r="U16">
-        <v>11535</v>
+        <v>11532</v>
       </c>
       <c r="X16">
-        <v>5496</v>
+        <v>5495</v>
       </c>
       <c r="Y16">
         <v>3832</v>
@@ -1855,13 +1855,13 @@
         <v>5655</v>
       </c>
       <c r="AG16">
-        <v>9011</v>
+        <v>9010</v>
       </c>
       <c r="AH16">
         <v>532</v>
       </c>
       <c r="AI16">
-        <v>118565</v>
+        <v>118555</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -1884,10 +1884,10 @@
         <v>1608</v>
       </c>
       <c r="G17">
-        <v>14492</v>
+        <v>14489</v>
       </c>
       <c r="H17">
-        <v>5717</v>
+        <v>5715</v>
       </c>
       <c r="K17">
         <v>325</v>
@@ -1905,7 +1905,7 @@
         <v>848</v>
       </c>
       <c r="R17">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="S17">
         <v>3080</v>
@@ -1914,13 +1914,13 @@
         <v>7981</v>
       </c>
       <c r="U17">
-        <v>12986</v>
+        <v>12983</v>
       </c>
       <c r="X17">
         <v>5968</v>
       </c>
       <c r="Y17">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="Z17">
         <v>19528</v>
@@ -1935,13 +1935,13 @@
         <v>5727</v>
       </c>
       <c r="AG17">
-        <v>9805</v>
+        <v>9804</v>
       </c>
       <c r="AH17">
         <v>598</v>
       </c>
       <c r="AI17">
-        <v>125702</v>
+        <v>125692</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -1949,7 +1949,7 @@
         <v>51</v>
       </c>
       <c r="B18">
-        <v>3941</v>
+        <v>3940</v>
       </c>
       <c r="C18">
         <v>733</v>
@@ -1964,10 +1964,10 @@
         <v>1649</v>
       </c>
       <c r="G18">
-        <v>15066</v>
+        <v>15062</v>
       </c>
       <c r="H18">
-        <v>6052</v>
+        <v>6050</v>
       </c>
       <c r="K18">
         <v>363</v>
@@ -1985,19 +1985,19 @@
         <v>846</v>
       </c>
       <c r="R18">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="S18">
         <v>3342</v>
       </c>
       <c r="T18">
-        <v>8552</v>
+        <v>8551</v>
       </c>
       <c r="U18">
-        <v>13995</v>
+        <v>13992</v>
       </c>
       <c r="X18">
-        <v>6315</v>
+        <v>6314</v>
       </c>
       <c r="Y18">
         <v>4218</v>
@@ -2015,13 +2015,13 @@
         <v>5945</v>
       </c>
       <c r="AG18">
-        <v>10538</v>
+        <v>10536</v>
       </c>
       <c r="AH18">
         <v>646</v>
       </c>
       <c r="AI18">
-        <v>132524</v>
+        <v>132514</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2029,7 +2029,7 @@
         <v>52</v>
       </c>
       <c r="B19">
-        <v>4035</v>
+        <v>4034</v>
       </c>
       <c r="C19">
         <v>631</v>
@@ -2044,28 +2044,28 @@
         <v>1677</v>
       </c>
       <c r="G19">
-        <v>15359</v>
+        <v>15355</v>
       </c>
       <c r="H19">
-        <v>6048</v>
+        <v>6047</v>
       </c>
       <c r="I19">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="J19">
         <v>2040</v>
       </c>
       <c r="K19">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L19">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="M19">
         <v>1214</v>
       </c>
       <c r="N19">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="O19">
         <v>1153</v>
@@ -2074,31 +2074,31 @@
         <v>2206</v>
       </c>
       <c r="Q19">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="R19">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="S19">
         <v>3545</v>
       </c>
       <c r="T19">
-        <v>8990</v>
+        <v>8989</v>
       </c>
       <c r="U19">
-        <v>15095</v>
+        <v>15092</v>
       </c>
       <c r="V19">
-        <v>12543</v>
+        <v>12540</v>
       </c>
       <c r="W19">
         <v>2552</v>
       </c>
       <c r="X19">
-        <v>6500</v>
+        <v>6499</v>
       </c>
       <c r="Y19">
-        <v>4309</v>
+        <v>4308</v>
       </c>
       <c r="Z19">
         <v>21625</v>
@@ -2119,16 +2119,16 @@
         <v>6188</v>
       </c>
       <c r="AF19">
-        <v>126249</v>
+        <v>126240</v>
       </c>
       <c r="AG19">
-        <v>11039</v>
+        <v>11037</v>
       </c>
       <c r="AH19">
         <v>651</v>
       </c>
       <c r="AI19">
-        <v>137939</v>
+        <v>137929</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2151,13 +2151,13 @@
         <v>1656</v>
       </c>
       <c r="G20">
-        <v>15219</v>
+        <v>15215</v>
       </c>
       <c r="H20">
-        <v>5968</v>
+        <v>5966</v>
       </c>
       <c r="I20">
-        <v>4036</v>
+        <v>4035</v>
       </c>
       <c r="J20">
         <v>1932</v>
@@ -2178,13 +2178,13 @@
         <v>1201</v>
       </c>
       <c r="P20">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="Q20">
         <v>847</v>
       </c>
       <c r="R20">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="S20">
         <v>3681</v>
@@ -2193,10 +2193,10 @@
         <v>8831</v>
       </c>
       <c r="U20">
-        <v>15484</v>
+        <v>15480</v>
       </c>
       <c r="V20">
-        <v>12835</v>
+        <v>12832</v>
       </c>
       <c r="W20">
         <v>2648</v>
@@ -2226,16 +2226,16 @@
         <v>6356</v>
       </c>
       <c r="AF20">
-        <v>128474</v>
+        <v>128464</v>
       </c>
       <c r="AG20">
-        <v>11228</v>
+        <v>11227</v>
       </c>
       <c r="AH20">
         <v>615</v>
       </c>
       <c r="AI20">
-        <v>140318</v>
+        <v>140306</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2258,13 +2258,13 @@
         <v>1627</v>
       </c>
       <c r="G21">
-        <v>15225</v>
+        <v>15221</v>
       </c>
       <c r="H21">
-        <v>6070</v>
+        <v>6068</v>
       </c>
       <c r="I21">
-        <v>3923</v>
+        <v>3921</v>
       </c>
       <c r="J21">
         <v>2157</v>
@@ -2288,22 +2288,22 @@
         <v>2253</v>
       </c>
       <c r="Q21">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="R21">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="S21">
         <v>3805</v>
       </c>
       <c r="T21">
-        <v>9193</v>
+        <v>9192</v>
       </c>
       <c r="U21">
-        <v>15807</v>
+        <v>15803</v>
       </c>
       <c r="V21">
-        <v>13059</v>
+        <v>13055</v>
       </c>
       <c r="W21">
         <v>2748</v>
@@ -2333,16 +2333,16 @@
         <v>6604</v>
       </c>
       <c r="AF21">
-        <v>131346</v>
+        <v>131335</v>
       </c>
       <c r="AG21">
-        <v>11506</v>
+        <v>11505</v>
       </c>
       <c r="AH21">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AI21">
-        <v>143488</v>
+        <v>143475</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -2365,13 +2365,13 @@
         <v>1630</v>
       </c>
       <c r="G22">
-        <v>15040</v>
+        <v>15036</v>
       </c>
       <c r="H22">
-        <v>5879</v>
+        <v>5877</v>
       </c>
       <c r="I22">
-        <v>3913</v>
+        <v>3911</v>
       </c>
       <c r="J22">
         <v>1972</v>
@@ -2386,7 +2386,7 @@
         <v>1192</v>
       </c>
       <c r="N22">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="O22">
         <v>1162</v>
@@ -2395,28 +2395,28 @@
         <v>2237</v>
       </c>
       <c r="Q22">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="R22">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="S22">
         <v>3866</v>
       </c>
       <c r="T22">
-        <v>9514</v>
+        <v>9512</v>
       </c>
       <c r="U22">
-        <v>16029</v>
+        <v>16025</v>
       </c>
       <c r="V22">
-        <v>13208</v>
+        <v>13204</v>
       </c>
       <c r="W22">
         <v>2820</v>
       </c>
       <c r="X22">
-        <v>7316</v>
+        <v>7315</v>
       </c>
       <c r="Y22">
         <v>4847</v>
@@ -2440,16 +2440,16 @@
         <v>6823</v>
       </c>
       <c r="AF22">
-        <v>133421</v>
+        <v>133409</v>
       </c>
       <c r="AG22">
-        <v>11749</v>
+        <v>11747</v>
       </c>
       <c r="AH22">
         <v>643</v>
       </c>
       <c r="AI22">
-        <v>145816</v>
+        <v>145801</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -2457,7 +2457,7 @@
         <v>56</v>
       </c>
       <c r="B23">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="C23">
         <v>828</v>
@@ -2472,13 +2472,13 @@
         <v>1528</v>
       </c>
       <c r="G23">
-        <v>15307</v>
+        <v>15302</v>
       </c>
       <c r="H23">
-        <v>6047</v>
+        <v>6044</v>
       </c>
       <c r="I23">
-        <v>4165</v>
+        <v>4163</v>
       </c>
       <c r="J23">
         <v>1873</v>
@@ -2487,25 +2487,25 @@
         <v>376</v>
       </c>
       <c r="L23">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="M23">
         <v>1179</v>
       </c>
       <c r="N23">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="O23">
         <v>1224</v>
       </c>
       <c r="P23">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="Q23">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="R23">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S23">
         <v>4038</v>
@@ -2514,19 +2514,19 @@
         <v>9165</v>
       </c>
       <c r="U23">
-        <v>16611</v>
+        <v>16606</v>
       </c>
       <c r="V23">
-        <v>13727</v>
+        <v>13722</v>
       </c>
       <c r="W23">
         <v>2884</v>
       </c>
       <c r="X23">
-        <v>7408</v>
+        <v>7407</v>
       </c>
       <c r="Y23">
-        <v>5016</v>
+        <v>5015</v>
       </c>
       <c r="Z23">
         <v>22011</v>
@@ -2547,16 +2547,16 @@
         <v>6935</v>
       </c>
       <c r="AF23">
-        <v>134992</v>
+        <v>134979</v>
       </c>
       <c r="AG23">
-        <v>12177</v>
+        <v>12176</v>
       </c>
       <c r="AH23">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AI23">
-        <v>147867</v>
+        <v>147852</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -2564,7 +2564,7 @@
         <v>57</v>
       </c>
       <c r="B24">
-        <v>4452</v>
+        <v>4451</v>
       </c>
       <c r="C24">
         <v>866</v>
@@ -2573,22 +2573,22 @@
         <v>15584</v>
       </c>
       <c r="E24">
-        <v>14107</v>
+        <v>14108</v>
       </c>
       <c r="F24">
         <v>1487</v>
       </c>
       <c r="G24">
-        <v>15898</v>
+        <v>15892</v>
       </c>
       <c r="H24">
-        <v>6374</v>
+        <v>6371</v>
       </c>
       <c r="I24">
-        <v>4245</v>
+        <v>4243</v>
       </c>
       <c r="J24">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="K24">
         <v>383</v>
@@ -2600,7 +2600,7 @@
         <v>1207</v>
       </c>
       <c r="N24">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="O24">
         <v>1258</v>
@@ -2609,31 +2609,31 @@
         <v>2272</v>
       </c>
       <c r="Q24">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="R24">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="S24">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="T24">
         <v>9309</v>
       </c>
       <c r="U24">
-        <v>17208</v>
+        <v>17203</v>
       </c>
       <c r="V24">
-        <v>14242</v>
+        <v>14237</v>
       </c>
       <c r="W24">
         <v>2968</v>
       </c>
       <c r="X24">
-        <v>7587</v>
+        <v>7586</v>
       </c>
       <c r="Y24">
-        <v>5375</v>
+        <v>5374</v>
       </c>
       <c r="Z24">
         <v>22791</v>
@@ -2654,16 +2654,16 @@
         <v>7010</v>
       </c>
       <c r="AF24">
-        <v>140013</v>
+        <v>139999</v>
       </c>
       <c r="AG24">
-        <v>12673</v>
+        <v>12672</v>
       </c>
       <c r="AH24">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AI24">
-        <v>153434</v>
+        <v>153419</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -2671,7 +2671,7 @@
         <v>58</v>
       </c>
       <c r="B25">
-        <v>4388</v>
+        <v>4387</v>
       </c>
       <c r="C25">
         <v>902</v>
@@ -2686,19 +2686,19 @@
         <v>1430</v>
       </c>
       <c r="G25">
-        <v>15927</v>
+        <v>15921</v>
       </c>
       <c r="H25">
-        <v>6295</v>
+        <v>6292</v>
       </c>
       <c r="I25">
-        <v>4241</v>
+        <v>4239</v>
       </c>
       <c r="J25">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="K25">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L25">
         <v>855</v>
@@ -2707,7 +2707,7 @@
         <v>1163</v>
       </c>
       <c r="N25">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="O25">
         <v>1322</v>
@@ -2719,25 +2719,25 @@
         <v>885</v>
       </c>
       <c r="R25">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="S25">
         <v>4151</v>
       </c>
       <c r="T25">
-        <v>9726</v>
+        <v>9725</v>
       </c>
       <c r="U25">
-        <v>17238</v>
+        <v>17234</v>
       </c>
       <c r="V25">
-        <v>14235</v>
+        <v>14230</v>
       </c>
       <c r="W25">
         <v>3002</v>
       </c>
       <c r="X25">
-        <v>7743</v>
+        <v>7742</v>
       </c>
       <c r="Y25">
         <v>5524</v>
@@ -2761,16 +2761,16 @@
         <v>7189</v>
       </c>
       <c r="AF25">
-        <v>141299</v>
+        <v>141285</v>
       </c>
       <c r="AG25">
-        <v>12808</v>
+        <v>12809</v>
       </c>
       <c r="AH25">
         <v>663</v>
       </c>
       <c r="AI25">
-        <v>154780</v>
+        <v>154766</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -2778,7 +2778,7 @@
         <v>59</v>
       </c>
       <c r="B26">
-        <v>4319</v>
+        <v>4318</v>
       </c>
       <c r="C26">
         <v>826</v>
@@ -2793,58 +2793,58 @@
         <v>1562</v>
       </c>
       <c r="G26">
-        <v>15338</v>
+        <v>15334</v>
       </c>
       <c r="H26">
-        <v>6165</v>
+        <v>6163</v>
       </c>
       <c r="I26">
-        <v>4325</v>
+        <v>4323</v>
       </c>
       <c r="J26">
         <v>1850</v>
       </c>
       <c r="K26">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L26">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M26">
         <v>1149</v>
       </c>
       <c r="N26">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="O26">
         <v>1031</v>
       </c>
       <c r="P26">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="Q26">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="R26">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="S26">
-        <v>4154</v>
+        <v>4153</v>
       </c>
       <c r="T26">
-        <v>8335</v>
+        <v>8338</v>
       </c>
       <c r="U26">
-        <v>15807</v>
+        <v>15797</v>
       </c>
       <c r="V26">
-        <v>13871</v>
+        <v>13861</v>
       </c>
       <c r="W26">
         <v>2067</v>
       </c>
       <c r="X26">
-        <v>6363</v>
+        <v>6362</v>
       </c>
       <c r="Y26">
         <v>5554</v>
@@ -2868,16 +2868,16 @@
         <v>7415</v>
       </c>
       <c r="AF26">
-        <v>132902</v>
+        <v>132889</v>
       </c>
       <c r="AG26">
-        <v>11978</v>
+        <v>11972</v>
       </c>
       <c r="AH26">
         <v>626</v>
       </c>
       <c r="AI26">
-        <v>145517</v>
+        <v>145498</v>
       </c>
     </row>
   </sheetData>
